--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1957067.34281057</v>
+        <v>1954815.263099363</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145775</v>
+        <v>78.96122915361011</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158.8226378576665</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335169</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>283.6826708844488</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067167</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.07192456522823</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>36.69369469525667</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358557</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>321.8286559082781</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>74.75769145492336</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>156.0100170058529</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.811236837704</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>285.0362685395777</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>77.73359659137272</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>251.1196674903458</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507439</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708034</v>
       </c>
       <c r="Y22" t="n">
-        <v>96.99837838564402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541143</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583159</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340561</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>164.9367233701402</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.936238874645</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>145.0891016767042</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.3852063573447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.274071128112</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373.8289708570296</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>373.8289708570296</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>373.8289708570296</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>373.8289708570296</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
-        <v>226.9390233591193</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.676735765777</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1004.259565728817</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>776.2700148307995</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.4774356872693</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535337</v>
+        <v>1935.36653093099</v>
       </c>
       <c r="C5" t="n">
-        <v>1904.487375535337</v>
+        <v>1566.404013990578</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1208.138315383828</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>850.493580837645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>681.5573979097381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>531.4407584974024</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>383.5276649150093</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>236.6377174170989</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>236.6377174170989</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1480.924175709432</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>1252.934624811415</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>1032.142045667885</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.174438931364</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.211921990952</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.946223384201</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.157970785957</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F8" t="n">
-        <v>731.1720659963496</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.774278995485</v>
+        <v>1887.813801820604</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836212</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836212</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836212</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836212</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836212</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836212</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4966,19 +4966,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
         <v>1927.294548088492</v>
@@ -4987,25 +4987,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271513</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836212</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6605733532801</v>
+        <v>734.6461798836032</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7243904253733</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3090381835199</v>
+        <v>916.2946447138429</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6145409888042</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888042</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5473,13 +5473,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1180.045135860591</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>952.055584962574</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.2630058190439</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>636.6680198981028</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>467.7318369701959</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>818.3164847283425</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,52 +6221,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429802</v>
@@ -6376,10 +6376,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>963.466348583466</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6534,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
         <v>680.0291294438171</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038385</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367897</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.2179484367897</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.2179484367897</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6895,13 +6895,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7023,19 +7023,19 @@
         <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349513</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>741.843151638089</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>591.7265122257533</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433601</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1319.459739407056</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407056</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,16 +7260,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7576,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,13 +7585,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487568</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>966.2295783107356</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7813,7 +7813,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>-1.063451355892333e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092383</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.148205849666454</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465679</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>35.40333084624521</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788398</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823374</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492285</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.6999868309282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788122</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5874149221286018</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25321,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762386</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>107.0485416471238</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,19 +25546,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.44677382459261</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.43558426092514</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860922.6969047773</v>
+        <v>860922.6969047775</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860922.6969047775</v>
+        <v>860922.6969047774</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860922.6969047774</v>
+        <v>860922.6969047773</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830047</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,31 +26430,31 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.752076855</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685503</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="O4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685501</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26522,46 +26522,46 @@
         <v>-955353.2342321937</v>
       </c>
       <c r="C6" t="n">
+        <v>373391.5114953987</v>
+      </c>
+      <c r="D6" t="n">
         <v>373391.5114953991</v>
       </c>
-      <c r="D6" t="n">
-        <v>373391.5114953988</v>
-      </c>
       <c r="E6" t="n">
-        <v>124250.8760748868</v>
+        <v>124216.1381494511</v>
       </c>
       <c r="F6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.599956807</v>
       </c>
       <c r="G6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568069</v>
       </c>
       <c r="H6" t="n">
-        <v>449663.3378822425</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="I6" t="n">
-        <v>449663.3378822425</v>
+        <v>449628.5999568067</v>
       </c>
       <c r="J6" t="n">
-        <v>232132.1354849649</v>
+        <v>232097.3975595293</v>
       </c>
       <c r="K6" t="n">
-        <v>449663.3378822427</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="L6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568069</v>
       </c>
       <c r="M6" t="n">
-        <v>364608.3099467306</v>
+        <v>364573.5720212949</v>
       </c>
       <c r="N6" t="n">
-        <v>449663.3378822426</v>
+        <v>449628.5999568069</v>
       </c>
       <c r="O6" t="n">
-        <v>449663.3378822421</v>
+        <v>449628.5999568066</v>
       </c>
       <c r="P6" t="n">
-        <v>449663.3378822423</v>
+        <v>449628.5999568066</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.4435131414761</v>
+        <v>307.2767095024435</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>7.203170401361774</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903111</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>71.00037073623412</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.702898665545092</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.68309034909255</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762492</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>89.09306974517534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>69.99732345939742</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>33.75900832558898</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-8.360776804491007e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-5.234388767146566e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,37 +31592,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31631,7 +31631,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31680,16 +31680,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31698,19 +31698,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31835,13 +31835,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,16 +32072,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,10 +32309,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32810,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>519.7862086120936</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214699</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33980,7 +33980,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,37 +34205,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,34 +34445,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
         <v>632.079992146269</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281448</v>
       </c>
       <c r="L30" t="n">
-        <v>254.8360547723481</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096391</v>
       </c>
       <c r="L31" t="n">
         <v>394.3420143191315</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37391,13 +37391,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>388.4444965287602</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071396</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37628,7 +37628,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37637,10 +37637,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38184,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
